--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -678,23 +678,23 @@
       </c>
       <c r="J14">
         <f ca="1">+RANDBETWEEN(1,9)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K14">
         <f ca="1">+RANDBETWEEN(1,9)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L14">
         <f ca="1">+RANDBETWEEN(1,9)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M14">
         <f t="shared" ref="M14:N14" ca="1" si="0">+RANDBETWEEN(1,9)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="3:14">
@@ -711,15 +711,15 @@
       </c>
       <c r="J15">
         <f t="shared" ref="J15:N58" ca="1" si="3">+RANDBETWEEN(1,9)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="3"/>
@@ -727,7 +727,7 @@
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="3:14">
@@ -744,11 +744,11 @@
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="3"/>
@@ -756,11 +756,11 @@
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="N16">
+        <f t="shared" ca="1" si="3"/>
         <v>4</v>
-      </c>
-      <c r="N16">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
       </c>
     </row>
     <row r="17" spans="6:14">
@@ -777,19 +777,19 @@
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="3"/>
@@ -810,23 +810,23 @@
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="6:14">
@@ -847,19 +847,19 @@
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="6:14">
@@ -876,23 +876,23 @@
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="6:14">
@@ -909,7 +909,7 @@
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="3"/>
@@ -917,7 +917,7 @@
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="3"/>
@@ -942,23 +942,23 @@
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="6:14">
@@ -975,19 +975,19 @@
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="3"/>
@@ -1012,11 +1012,11 @@
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="3"/>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="6:14">
@@ -1041,11 +1041,11 @@
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="3"/>
@@ -1053,11 +1053,11 @@
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="6:14">
@@ -1074,23 +1074,23 @@
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="L26">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="M26">
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
-      <c r="K26">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="L26">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="M26">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
       <c r="N26">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="6:14">
@@ -1107,23 +1107,23 @@
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="6:14">
@@ -1140,23 +1140,23 @@
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="6:14">
@@ -1185,11 +1185,11 @@
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="6:14">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="3"/>
@@ -1214,15 +1214,15 @@
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M30">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="6:14">
@@ -1239,23 +1239,23 @@
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L31">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="6:14">
@@ -1272,23 +1272,23 @@
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L32">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M32">
         <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="N32">
+        <f t="shared" ca="1" si="3"/>
         <v>8</v>
-      </c>
-      <c r="N32">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
       </c>
     </row>
     <row r="33" spans="6:14">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L33">
         <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="M33">
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <f t="shared" ca="1" si="3"/>
         <v>4</v>
-      </c>
-      <c r="N33">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
       </c>
     </row>
     <row r="34" spans="6:14">
@@ -1338,23 +1338,23 @@
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L34">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M34">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N34">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="6:14">
@@ -1371,19 +1371,19 @@
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L35">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="3"/>
@@ -1404,23 +1404,23 @@
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L36">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M36">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="6:14">
@@ -1437,23 +1437,23 @@
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="K37">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="M37">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="N37">
+        <f t="shared" ca="1" si="3"/>
         <v>4</v>
-      </c>
-      <c r="K37">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="M37">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="N37">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
       </c>
     </row>
     <row r="38" spans="6:14">
@@ -1470,23 +1470,23 @@
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L38">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="6:14">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="3"/>
@@ -1511,15 +1511,15 @@
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="6:14">
@@ -1540,19 +1540,19 @@
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L40">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="6:14">
@@ -1569,23 +1569,23 @@
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K41">
+        <f t="shared" ca="1" si="3"/>
         <v>7</v>
       </c>
-      <c r="K41">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
       <c r="L41">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="6:14">
@@ -1602,23 +1602,23 @@
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L42">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M42">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="6:14">
@@ -1635,23 +1635,23 @@
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L43">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M43">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="6:14">
@@ -1668,15 +1668,15 @@
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K44">
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
-      <c r="K44">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
       <c r="L44">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M44">
         <f t="shared" ca="1" si="3"/>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="N44">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="6:14">
@@ -1701,23 +1701,23 @@
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L45">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M45">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N45">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="6:14">
@@ -1734,19 +1734,19 @@
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L46">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M46">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="3"/>
@@ -1767,11 +1767,11 @@
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L47">
         <f t="shared" ca="1" si="3"/>
@@ -1779,11 +1779,11 @@
       </c>
       <c r="M47">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="6:14">
@@ -1800,23 +1800,23 @@
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="K48">
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
-      <c r="K48">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
       <c r="L48">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M48">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N48">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="6:14">
@@ -1833,11 +1833,11 @@
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L49">
         <f t="shared" ca="1" si="3"/>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="N49">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="6:14">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="3"/>
@@ -1878,11 +1878,11 @@
       </c>
       <c r="M50">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N50">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="6:14">
@@ -1899,23 +1899,23 @@
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L51">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M51">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N51">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="6:14">
@@ -1936,15 +1936,15 @@
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L52">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M52">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N52">
         <f t="shared" ca="1" si="3"/>
@@ -1969,19 +1969,19 @@
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L53">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M53">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N53">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="6:14">
@@ -1998,23 +1998,23 @@
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K54">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L54">
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
-      <c r="K54">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L54">
+      <c r="M54">
         <f t="shared" ca="1" si="3"/>
         <v>9</v>
       </c>
-      <c r="M54">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
       <c r="N54">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="6:14">
@@ -2035,19 +2035,19 @@
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L55">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M55">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N55">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="6:14">
@@ -2064,7 +2064,7 @@
       </c>
       <c r="J56">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="3"/>
@@ -2072,7 +2072,7 @@
       </c>
       <c r="L56">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M56">
         <f t="shared" ca="1" si="3"/>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="N56">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="6:14">
@@ -2097,23 +2097,23 @@
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L57">
         <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="M57">
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
-      <c r="M57">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
       <c r="N57">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="6:14">
@@ -2130,23 +2130,23 @@
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K58">
+        <f t="shared" ca="1" si="3"/>
         <v>7</v>
       </c>
-      <c r="K58">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
       <c r="L58">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M58">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N58">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2158,8 +2158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2180,7 +2180,7 @@
         <v>2011</v>
       </c>
       <c r="D4" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F4" s="2">
         <v>1000000</v>
@@ -2202,7 +2202,7 @@
         <v>2012</v>
       </c>
       <c r="D5" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F5" s="2">
         <v>1000000</v>
@@ -2224,7 +2224,7 @@
         <v>2013</v>
       </c>
       <c r="D6" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F6" s="2">
         <v>1000000</v>
@@ -2246,7 +2246,7 @@
         <v>2014</v>
       </c>
       <c r="D7" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F7" s="2">
         <v>1000000</v>
@@ -2268,7 +2268,7 @@
         <v>2015</v>
       </c>
       <c r="D8" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F8" s="2">
         <v>1000000</v>
@@ -2290,7 +2290,7 @@
         <v>2016</v>
       </c>
       <c r="D9" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F9" s="2">
         <v>1000000</v>
@@ -2312,7 +2312,7 @@
         <v>2017</v>
       </c>
       <c r="D10" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F10" s="2">
         <v>1000000</v>
@@ -2334,7 +2334,7 @@
         <v>2018</v>
       </c>
       <c r="D11" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F11" s="2">
         <v>1000000</v>
@@ -2356,7 +2356,7 @@
         <v>2019</v>
       </c>
       <c r="D12" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F12" s="2">
         <v>1000000</v>
@@ -2378,7 +2378,7 @@
         <v>2020</v>
       </c>
       <c r="D13" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F13" s="2">
         <v>1000000</v>
@@ -2400,7 +2400,7 @@
         <v>2021</v>
       </c>
       <c r="D14" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F14" s="2">
         <v>1000000</v>
@@ -2422,7 +2422,7 @@
         <v>2022</v>
       </c>
       <c r="D15" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F15" s="2">
         <v>1000000</v>
@@ -2444,7 +2444,7 @@
         <v>2023</v>
       </c>
       <c r="D16" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F16" s="2">
         <v>1000000</v>
@@ -2466,7 +2466,7 @@
         <v>2024</v>
       </c>
       <c r="D17" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F17" s="2">
         <v>1000000</v>
@@ -2488,7 +2488,7 @@
         <v>2025</v>
       </c>
       <c r="D18" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F18" s="2">
         <v>1000000</v>
@@ -2510,7 +2510,7 @@
         <v>2026</v>
       </c>
       <c r="D19" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F19" s="2">
         <v>1000000</v>
@@ -2532,7 +2532,7 @@
         <v>2027</v>
       </c>
       <c r="D20" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F20" s="2">
         <v>1000000</v>
@@ -2554,7 +2554,7 @@
         <v>2028</v>
       </c>
       <c r="D21" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F21" s="2">
         <v>1000000</v>
@@ -2576,7 +2576,7 @@
         <v>2029</v>
       </c>
       <c r="D22" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F22" s="2">
         <v>1000000</v>
@@ -2598,7 +2598,7 @@
         <v>2030</v>
       </c>
       <c r="D23" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F23" s="2">
         <v>1000000</v>
@@ -2620,7 +2620,7 @@
         <v>2031</v>
       </c>
       <c r="D24" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F24" s="2">
         <v>1000000</v>
@@ -2642,7 +2642,7 @@
         <v>2032</v>
       </c>
       <c r="D25" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F25" s="2">
         <v>1000000</v>
@@ -2664,7 +2664,7 @@
         <v>2033</v>
       </c>
       <c r="D26" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F26" s="2">
         <v>1000000</v>
@@ -2686,7 +2686,7 @@
         <v>2034</v>
       </c>
       <c r="D27" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F27" s="2">
         <v>1000000</v>
@@ -2708,7 +2708,7 @@
         <v>2035</v>
       </c>
       <c r="D28" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F28" s="2">
         <v>1000000</v>
@@ -2730,7 +2730,7 @@
         <v>2036</v>
       </c>
       <c r="D29" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F29" s="2">
         <v>1000000</v>
@@ -2752,7 +2752,7 @@
         <v>2037</v>
       </c>
       <c r="D30" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F30" s="2">
         <v>1000000</v>
@@ -2774,7 +2774,7 @@
         <v>2038</v>
       </c>
       <c r="D31" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F31" s="2">
         <v>1000000</v>
@@ -2796,7 +2796,7 @@
         <v>2039</v>
       </c>
       <c r="D32" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F32" s="2">
         <v>1000000</v>
@@ -2818,7 +2818,7 @@
         <v>2040</v>
       </c>
       <c r="D33" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F33" s="2">
         <v>1000000</v>
@@ -2840,7 +2840,7 @@
         <v>2041</v>
       </c>
       <c r="D34" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F34" s="2">
         <v>1000000</v>
@@ -2862,7 +2862,7 @@
         <v>2042</v>
       </c>
       <c r="D35" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F35" s="2">
         <v>1000000</v>
@@ -2884,7 +2884,7 @@
         <v>2043</v>
       </c>
       <c r="D36" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F36" s="2">
         <v>1000000</v>
@@ -2906,7 +2906,7 @@
         <v>2044</v>
       </c>
       <c r="D37" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F37" s="2">
         <v>1000000</v>
@@ -2928,7 +2928,7 @@
         <v>2045</v>
       </c>
       <c r="D38" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F38" s="2">
         <v>1000000</v>
@@ -2950,7 +2950,7 @@
         <v>2046</v>
       </c>
       <c r="D39" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F39" s="2">
         <v>1000000</v>
@@ -2972,7 +2972,7 @@
         <v>2047</v>
       </c>
       <c r="D40" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F40" s="2">
         <v>1000000</v>
@@ -2994,7 +2994,7 @@
         <v>2048</v>
       </c>
       <c r="D41" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F41" s="2">
         <v>1000000</v>
@@ -3016,7 +3016,7 @@
         <v>2049</v>
       </c>
       <c r="D42" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F42" s="2">
         <v>1000000</v>
@@ -3038,7 +3038,7 @@
         <v>2050</v>
       </c>
       <c r="D43" s="1">
-        <v>700000</v>
+        <v>7000000</v>
       </c>
       <c r="F43" s="2">
         <v>1000000</v>
@@ -9045,7 +9045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,13 +20,15 @@
     <sheet name="Fuel_data" sheetId="7" r:id="rId6"/>
     <sheet name="ship_var" sheetId="8" r:id="rId7"/>
     <sheet name="ship_inv" sheetId="9" r:id="rId8"/>
+    <sheet name="Demand forecasts" sheetId="11" r:id="rId9"/>
+    <sheet name="Preexisting fleet" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
   <si>
     <t>_</t>
   </si>
@@ -230,6 +232,27 @@
   </si>
   <si>
     <t>https://afi.dnvgl.com/Statistics?repId=4</t>
+  </si>
+  <si>
+    <t>LPG</t>
+  </si>
+  <si>
+    <t>p37  of review of maritime transport 2019</t>
+  </si>
+  <si>
+    <t>Costs</t>
+  </si>
+  <si>
+    <t>Emissions</t>
+  </si>
+  <si>
+    <t>Tils paper</t>
+  </si>
+  <si>
+    <t>[gCO2/MJ]</t>
+  </si>
+  <si>
+    <t>p86 of Maritime Forecast to 2050</t>
   </si>
 </sst>
 </file>
@@ -549,13 +572,13 @@
   <dimension ref="C4:N58"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -678,7 +701,7 @@
       </c>
       <c r="J14">
         <f ca="1">+RANDBETWEEN(1,9)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K14">
         <f ca="1">+RANDBETWEEN(1,9)</f>
@@ -686,15 +709,15 @@
       </c>
       <c r="L14">
         <f ca="1">+RANDBETWEEN(1,9)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M14">
         <f t="shared" ref="M14:N14" ca="1" si="0">+RANDBETWEEN(1,9)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="3:14">
@@ -711,23 +734,23 @@
       </c>
       <c r="J15">
         <f t="shared" ref="J15:N58" ca="1" si="3">+RANDBETWEEN(1,9)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="3:14">
@@ -744,23 +767,23 @@
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="N16">
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
-      </c>
-      <c r="N16">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
       </c>
     </row>
     <row r="17" spans="6:14">
@@ -777,23 +800,23 @@
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="6:14">
@@ -814,7 +837,7 @@
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="3"/>
@@ -822,11 +845,11 @@
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="6:14">
@@ -847,19 +870,19 @@
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="6:14">
@@ -876,23 +899,23 @@
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="6:14">
@@ -909,23 +932,23 @@
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
-      <c r="K21">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="L21">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="M21">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
       <c r="N21">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="6:14">
@@ -942,23 +965,23 @@
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="M22">
+        <f t="shared" ca="1" si="3"/>
         <v>9</v>
       </c>
-      <c r="L22">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="M22">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
       <c r="N22">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="6:14">
@@ -975,15 +998,15 @@
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="3"/>
@@ -991,7 +1014,7 @@
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="6:14">
@@ -1008,23 +1031,23 @@
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="6:14">
@@ -1041,23 +1064,23 @@
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="L25">
+        <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
-      <c r="K25">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="L25">
+      <c r="M25">
         <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
-      <c r="M25">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
       <c r="N25">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="6:14">
@@ -1074,23 +1097,23 @@
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L26">
         <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="M26">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="N26">
+        <f t="shared" ca="1" si="3"/>
         <v>7</v>
-      </c>
-      <c r="M26">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="N26">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
       </c>
     </row>
     <row r="27" spans="6:14">
@@ -1107,23 +1130,23 @@
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ca="1" si="3"/>
         <v>9</v>
       </c>
-      <c r="K27">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L27">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
       <c r="N27">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="6:14">
@@ -1144,7 +1167,7 @@
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="3"/>
@@ -1152,11 +1175,11 @@
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="6:14">
@@ -1173,23 +1196,23 @@
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
-      <c r="K29">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="L29">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
       <c r="M29">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="6:14">
@@ -1206,23 +1229,23 @@
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M30">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="6:14">
@@ -1239,23 +1262,23 @@
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="M31">
+        <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
-      <c r="M31">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
       <c r="N31">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="6:14">
@@ -1272,11 +1295,11 @@
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L32">
         <f t="shared" ca="1" si="3"/>
@@ -1284,11 +1307,11 @@
       </c>
       <c r="M32">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="6:14">
@@ -1305,19 +1328,19 @@
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <f t="shared" ca="1" si="3"/>
         <v>9</v>
-      </c>
-      <c r="L33">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="M33">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
       </c>
       <c r="N33">
         <f t="shared" ca="1" si="3"/>
@@ -1338,23 +1361,23 @@
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <f t="shared" ca="1" si="3"/>
         <v>9</v>
       </c>
-      <c r="L34">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="M34">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
       <c r="N34">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="6:14">
@@ -1371,23 +1394,23 @@
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="6:14">
@@ -1404,19 +1427,19 @@
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="L36">
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
-      <c r="K36">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L36">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
       <c r="M36">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="3"/>
@@ -1437,23 +1460,23 @@
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="N37">
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
-      </c>
-      <c r="K37">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="M37">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="N37">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
       </c>
     </row>
     <row r="38" spans="6:14">
@@ -1474,15 +1497,15 @@
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L38">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="3"/>
@@ -1503,11 +1526,11 @@
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="3"/>
@@ -1515,11 +1538,11 @@
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="6:14">
@@ -1536,23 +1559,23 @@
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K40">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L40">
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
-      <c r="K40">
+      <c r="M40">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="N40">
         <f t="shared" ca="1" si="3"/>
         <v>5</v>
-      </c>
-      <c r="L40">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="M40">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="N40">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
       </c>
     </row>
     <row r="41" spans="6:14">
@@ -1569,15 +1592,15 @@
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K41">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L41">
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
-      </c>
-      <c r="K41">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="L41">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="3"/>
@@ -1602,23 +1625,23 @@
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ca="1" si="3"/>
         <v>7</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
-      <c r="L42">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
       <c r="M42">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="6:14">
@@ -1635,23 +1658,23 @@
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K43">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="L43">
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
-      <c r="K43">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="L43">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
       <c r="M43">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="6:14">
@@ -1668,23 +1691,23 @@
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L44">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M44">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N44">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="6:14">
@@ -1701,19 +1724,19 @@
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L45">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M45">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N45">
         <f t="shared" ca="1" si="3"/>
@@ -1734,23 +1757,23 @@
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L46">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M46">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="6:14">
@@ -1767,23 +1790,23 @@
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L47">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M47">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="6:14">
@@ -1800,23 +1823,23 @@
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="M48">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="N48">
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
-      </c>
-      <c r="L48">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="M48">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
       </c>
     </row>
     <row r="49" spans="6:14">
@@ -1833,23 +1856,23 @@
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L49">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M49">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N49">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="6:14">
@@ -1866,15 +1889,15 @@
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L50">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M50">
         <f t="shared" ca="1" si="3"/>
@@ -1899,23 +1922,23 @@
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K51">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
-      </c>
-      <c r="K51">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L51">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="M51">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N51">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
       </c>
     </row>
     <row r="52" spans="6:14">
@@ -1932,23 +1955,23 @@
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K52">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="L52">
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
-      <c r="K52">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="L52">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
       <c r="M52">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N52">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="6:14">
@@ -1965,7 +1988,7 @@
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="3"/>
@@ -1977,11 +2000,11 @@
       </c>
       <c r="M53">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N53">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="6:14">
@@ -2002,19 +2025,19 @@
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L54">
         <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="M54">
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
-      <c r="M54">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
       <c r="N54">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="6:14">
@@ -2031,23 +2054,23 @@
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L55">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M55">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N55">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="6:14">
@@ -2064,23 +2087,23 @@
       </c>
       <c r="J56">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L56">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M56">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N56">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="6:14">
@@ -2097,23 +2120,23 @@
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="K57">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="L57">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="M57">
+        <f t="shared" ca="1" si="3"/>
         <v>9</v>
       </c>
-      <c r="K57">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="L57">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="M57">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
       <c r="N57">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="6:14">
@@ -2130,36 +2153,48 @@
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L58">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M58">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N58">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:H43"/>
+  <dimension ref="A4:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2168,7 +2203,7 @@
     <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2182,17 +2217,8 @@
       <c r="D4" s="1">
         <v>7000000</v>
       </c>
-      <c r="F4" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G4" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H4" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:4">
       <c r="B5" t="str">
         <f t="shared" ref="B5:B43" si="0">+$A$4&amp;C5&amp;$A$4</f>
         <v>"2012"</v>
@@ -2204,17 +2230,8 @@
       <c r="D5" s="1">
         <v>7000000</v>
       </c>
-      <c r="F5" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G5" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H5" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:4">
       <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>"2013"</v>
@@ -2226,17 +2243,8 @@
       <c r="D6" s="1">
         <v>7000000</v>
       </c>
-      <c r="F6" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G6" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H6" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:4">
       <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>"2014"</v>
@@ -2248,17 +2256,8 @@
       <c r="D7" s="1">
         <v>7000000</v>
       </c>
-      <c r="F7" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G7" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H7" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:4">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v>"2015"</v>
@@ -2270,17 +2269,8 @@
       <c r="D8" s="1">
         <v>7000000</v>
       </c>
-      <c r="F8" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G8" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H8" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:4">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v>"2016"</v>
@@ -2292,17 +2282,8 @@
       <c r="D9" s="1">
         <v>7000000</v>
       </c>
-      <c r="F9" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G9" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H9" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:4">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
         <v>"2017"</v>
@@ -2314,17 +2295,8 @@
       <c r="D10" s="1">
         <v>7000000</v>
       </c>
-      <c r="F10" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G10" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H10" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:4">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
         <v>"2018"</v>
@@ -2336,17 +2308,8 @@
       <c r="D11" s="1">
         <v>7000000</v>
       </c>
-      <c r="F11" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G11" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H11" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+    </row>
+    <row r="12" spans="1:4">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
         <v>"2019"</v>
@@ -2358,17 +2321,8 @@
       <c r="D12" s="1">
         <v>7000000</v>
       </c>
-      <c r="F12" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G12" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H12" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+    </row>
+    <row r="13" spans="1:4">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
         <v>"2020"</v>
@@ -2380,17 +2334,8 @@
       <c r="D13" s="1">
         <v>7000000</v>
       </c>
-      <c r="F13" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G13" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H13" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+    </row>
+    <row r="14" spans="1:4">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
         <v>"2021"</v>
@@ -2402,17 +2347,8 @@
       <c r="D14" s="1">
         <v>7000000</v>
       </c>
-      <c r="F14" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G14" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H14" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+    </row>
+    <row r="15" spans="1:4">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
         <v>"2022"</v>
@@ -2424,17 +2360,8 @@
       <c r="D15" s="1">
         <v>7000000</v>
       </c>
-      <c r="F15" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G15" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H15" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+    </row>
+    <row r="16" spans="1:4">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
         <v>"2023"</v>
@@ -2446,17 +2373,8 @@
       <c r="D16" s="1">
         <v>7000000</v>
       </c>
-      <c r="F16" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G16" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H16" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
         <v>"2024"</v>
@@ -2468,17 +2386,8 @@
       <c r="D17" s="1">
         <v>7000000</v>
       </c>
-      <c r="F17" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G17" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H17" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
+    </row>
+    <row r="18" spans="2:4">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
         <v>"2025"</v>
@@ -2490,17 +2399,8 @@
       <c r="D18" s="1">
         <v>7000000</v>
       </c>
-      <c r="F18" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G18" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H18" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
+    </row>
+    <row r="19" spans="2:4">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
         <v>"2026"</v>
@@ -2512,17 +2412,8 @@
       <c r="D19" s="1">
         <v>7000000</v>
       </c>
-      <c r="F19" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G19" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H19" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
+    </row>
+    <row r="20" spans="2:4">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
         <v>"2027"</v>
@@ -2534,17 +2425,8 @@
       <c r="D20" s="1">
         <v>7000000</v>
       </c>
-      <c r="F20" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G20" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H20" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
+    </row>
+    <row r="21" spans="2:4">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
         <v>"2028"</v>
@@ -2556,17 +2438,8 @@
       <c r="D21" s="1">
         <v>7000000</v>
       </c>
-      <c r="F21" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G21" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H21" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
+    </row>
+    <row r="22" spans="2:4">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>"2029"</v>
@@ -2578,17 +2451,8 @@
       <c r="D22" s="1">
         <v>7000000</v>
       </c>
-      <c r="F22" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G22" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H22" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
+    </row>
+    <row r="23" spans="2:4">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
         <v>"2030"</v>
@@ -2600,17 +2464,8 @@
       <c r="D23" s="1">
         <v>7000000</v>
       </c>
-      <c r="F23" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G23" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H23" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
+    </row>
+    <row r="24" spans="2:4">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
         <v>"2031"</v>
@@ -2622,17 +2477,8 @@
       <c r="D24" s="1">
         <v>7000000</v>
       </c>
-      <c r="F24" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G24" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H24" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
+    </row>
+    <row r="25" spans="2:4">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
         <v>"2032"</v>
@@ -2644,17 +2490,8 @@
       <c r="D25" s="1">
         <v>7000000</v>
       </c>
-      <c r="F25" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G25" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H25" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
+    </row>
+    <row r="26" spans="2:4">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
         <v>"2033"</v>
@@ -2666,17 +2503,8 @@
       <c r="D26" s="1">
         <v>7000000</v>
       </c>
-      <c r="F26" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G26" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H26" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
+    </row>
+    <row r="27" spans="2:4">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
         <v>"2034"</v>
@@ -2688,17 +2516,8 @@
       <c r="D27" s="1">
         <v>7000000</v>
       </c>
-      <c r="F27" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G27" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H27" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
+    </row>
+    <row r="28" spans="2:4">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
         <v>"2035"</v>
@@ -2710,17 +2529,8 @@
       <c r="D28" s="1">
         <v>7000000</v>
       </c>
-      <c r="F28" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G28" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H28" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
+    </row>
+    <row r="29" spans="2:4">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
         <v>"2036"</v>
@@ -2732,17 +2542,8 @@
       <c r="D29" s="1">
         <v>7000000</v>
       </c>
-      <c r="F29" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G29" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H29" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
+    </row>
+    <row r="30" spans="2:4">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
         <v>"2037"</v>
@@ -2754,17 +2555,8 @@
       <c r="D30" s="1">
         <v>7000000</v>
       </c>
-      <c r="F30" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G30" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H30" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
+    </row>
+    <row r="31" spans="2:4">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
         <v>"2038"</v>
@@ -2776,17 +2568,8 @@
       <c r="D31" s="1">
         <v>7000000</v>
       </c>
-      <c r="F31" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G31" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H31" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
+    </row>
+    <row r="32" spans="2:4">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
         <v>"2039"</v>
@@ -2798,17 +2581,8 @@
       <c r="D32" s="1">
         <v>7000000</v>
       </c>
-      <c r="F32" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G32" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H32" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
+    </row>
+    <row r="33" spans="2:4">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
         <v>"2040"</v>
@@ -2820,17 +2594,8 @@
       <c r="D33" s="1">
         <v>7000000</v>
       </c>
-      <c r="F33" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G33" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H33" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
+    </row>
+    <row r="34" spans="2:4">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
         <v>"2041"</v>
@@ -2842,17 +2607,8 @@
       <c r="D34" s="1">
         <v>7000000</v>
       </c>
-      <c r="F34" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G34" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H34" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
+    </row>
+    <row r="35" spans="2:4">
       <c r="B35" t="str">
         <f t="shared" si="0"/>
         <v>"2042"</v>
@@ -2864,17 +2620,8 @@
       <c r="D35" s="1">
         <v>7000000</v>
       </c>
-      <c r="F35" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G35" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H35" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
+    </row>
+    <row r="36" spans="2:4">
       <c r="B36" t="str">
         <f t="shared" si="0"/>
         <v>"2043"</v>
@@ -2886,17 +2633,8 @@
       <c r="D36" s="1">
         <v>7000000</v>
       </c>
-      <c r="F36" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G36" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H36" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
+    </row>
+    <row r="37" spans="2:4">
       <c r="B37" t="str">
         <f t="shared" si="0"/>
         <v>"2044"</v>
@@ -2908,17 +2646,8 @@
       <c r="D37" s="1">
         <v>7000000</v>
       </c>
-      <c r="F37" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G37" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H37" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
+    </row>
+    <row r="38" spans="2:4">
       <c r="B38" t="str">
         <f t="shared" si="0"/>
         <v>"2045"</v>
@@ -2930,17 +2659,8 @@
       <c r="D38" s="1">
         <v>7000000</v>
       </c>
-      <c r="F38" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G38" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H38" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8">
+    </row>
+    <row r="39" spans="2:4">
       <c r="B39" t="str">
         <f t="shared" si="0"/>
         <v>"2046"</v>
@@ -2952,17 +2672,8 @@
       <c r="D39" s="1">
         <v>7000000</v>
       </c>
-      <c r="F39" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G39" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H39" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8">
+    </row>
+    <row r="40" spans="2:4">
       <c r="B40" t="str">
         <f t="shared" si="0"/>
         <v>"2047"</v>
@@ -2974,17 +2685,8 @@
       <c r="D40" s="1">
         <v>7000000</v>
       </c>
-      <c r="F40" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G40" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H40" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
+    </row>
+    <row r="41" spans="2:4">
       <c r="B41" t="str">
         <f t="shared" si="0"/>
         <v>"2048"</v>
@@ -2996,17 +2698,8 @@
       <c r="D41" s="1">
         <v>7000000</v>
       </c>
-      <c r="F41" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G41" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H41" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8">
+    </row>
+    <row r="42" spans="2:4">
       <c r="B42" t="str">
         <f t="shared" si="0"/>
         <v>"2049"</v>
@@ -3018,17 +2711,8 @@
       <c r="D42" s="1">
         <v>7000000</v>
       </c>
-      <c r="F42" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G42" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H42" s="2">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8">
+    </row>
+    <row r="43" spans="2:4">
       <c r="B43" t="str">
         <f t="shared" si="0"/>
         <v>"2050"</v>
@@ -3039,15 +2723,6 @@
       </c>
       <c r="D43" s="1">
         <v>7000000</v>
-      </c>
-      <c r="F43" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G43" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H43" s="2">
-        <v>900000</v>
       </c>
     </row>
   </sheetData>
@@ -6414,8 +6089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:AU11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:AU11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7312,23 +6987,39 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:P47"/>
+  <dimension ref="A2:AD47"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:P47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:16">
+    <row r="2" spans="1:30">
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="H3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="4:16">
+    <row r="5" spans="1:30">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
       <c r="G5" t="s">
         <v>1</v>
       </c>
@@ -7351,1688 +7042,1908 @@
         <v>7</v>
       </c>
       <c r="N5" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="O5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="4:16">
-      <c r="D8">
+    <row r="6" spans="1:30">
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6">
         <v>2011</v>
       </c>
-      <c r="E8">
-        <v>0</v>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>8.1479999999999997</v>
+      </c>
+      <c r="F7">
+        <f>+F6+1</f>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>6.6</v>
       </c>
       <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
+        <f t="shared" ref="F8:F45" si="0">+F7+1</f>
+        <v>2013</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="4:16">
-      <c r="D9">
-        <f>+D8+1</f>
+        <v>30</v>
+      </c>
+      <c r="R8">
+        <v>2011</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>7.7279999999999998</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="R9">
+        <f>+R8+1</f>
         <v>2012</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="4:16">
-      <c r="D10">
-        <f t="shared" ref="D10:D47" si="0">+D9+1</f>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="R10">
+        <f t="shared" ref="R10:R47" si="1">+R9+1</f>
         <v>2013</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="4:16">
-      <c r="D11">
-        <f t="shared" si="0"/>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
         <v>2014</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="4:16">
-      <c r="D12">
-        <f t="shared" si="0"/>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
         <v>2015</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="4:16">
-      <c r="D13">
-        <f t="shared" si="0"/>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
         <v>2016</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="4:16">
-      <c r="D14">
-        <f t="shared" si="0"/>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
         <v>2017</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="4:16">
-      <c r="D15">
-        <f t="shared" si="0"/>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
         <v>2018</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="4:16">
-      <c r="D16">
-        <f t="shared" si="0"/>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
         <v>2019</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="4:16">
-      <c r="D17">
-        <f t="shared" si="0"/>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="6:30">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
         <v>2020</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="4:16">
-      <c r="D18">
-        <f t="shared" si="0"/>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="6:30">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
         <v>2021</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="4:16">
-      <c r="D19">
-        <f t="shared" si="0"/>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="6:30">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
         <v>2022</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="4:16">
-      <c r="D20">
-        <f t="shared" si="0"/>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="6:30">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="1"/>
         <v>2023</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="4:16">
-      <c r="D21">
-        <f t="shared" si="0"/>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="6:30">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="1"/>
         <v>2024</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="4:16">
-      <c r="D22">
-        <f t="shared" si="0"/>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="6:30">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="1"/>
         <v>2025</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="4:16">
-      <c r="D23">
-        <f t="shared" si="0"/>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="6:30">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="1"/>
         <v>2026</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="4:16">
-      <c r="D24">
-        <f t="shared" si="0"/>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="6:30">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="1"/>
         <v>2027</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="4:16">
-      <c r="D25">
-        <f t="shared" si="0"/>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="6:30">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="1"/>
         <v>2028</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="4:16">
-      <c r="D26">
-        <f t="shared" si="0"/>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="6:30">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="1"/>
         <v>2029</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="4:16">
-      <c r="D27">
-        <f t="shared" si="0"/>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="6:30">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="1"/>
         <v>2030</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="4:16">
-      <c r="D28">
-        <f t="shared" si="0"/>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="6:30">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="1"/>
         <v>2031</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="4:16">
-      <c r="D29">
-        <f t="shared" si="0"/>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="6:30">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="1"/>
         <v>2032</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="4:16">
-      <c r="D30">
-        <f t="shared" si="0"/>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="6:30">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="1"/>
         <v>2033</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="4:16">
-      <c r="D31">
-        <f t="shared" si="0"/>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="6:30">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>2036</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="1"/>
         <v>2034</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="4:16">
-      <c r="D32">
-        <f t="shared" si="0"/>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="6:30">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>2037</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="1"/>
         <v>2035</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="4:16">
-      <c r="D33">
-        <f t="shared" si="0"/>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="6:30">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>2038</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="1"/>
         <v>2036</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="4:16">
-      <c r="D34">
-        <f t="shared" si="0"/>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="6:30">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>2039</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="1"/>
         <v>2037</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="4:16">
-      <c r="D35">
-        <f t="shared" si="0"/>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="6:30">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>2040</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="1"/>
         <v>2038</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="4:16">
-      <c r="D36">
-        <f t="shared" si="0"/>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="6:30">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>2041</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="1"/>
         <v>2039</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="4:16">
-      <c r="D37">
-        <f t="shared" si="0"/>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="6:30">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>2042</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="1"/>
         <v>2040</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="4:16">
-      <c r="D38">
-        <f t="shared" si="0"/>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="6:30">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>2043</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="1"/>
         <v>2041</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="4:16">
-      <c r="D39">
-        <f t="shared" si="0"/>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="6:30">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>2044</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="1"/>
         <v>2042</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="4:16">
-      <c r="D40">
-        <f t="shared" si="0"/>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="6:30">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>2045</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="1"/>
         <v>2043</v>
       </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="4:16">
-      <c r="D41">
-        <f t="shared" si="0"/>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="6:30">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>2046</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="1"/>
         <v>2044</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="4:16">
-      <c r="D42">
-        <f t="shared" si="0"/>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="6:30">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>2047</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="1"/>
         <v>2045</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="4:16">
-      <c r="D43">
-        <f t="shared" si="0"/>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="6:30">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="1"/>
         <v>2046</v>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="4:16">
-      <c r="D44">
-        <f t="shared" si="0"/>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="6:30">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>2049</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="1"/>
         <v>2047</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="4:16">
-      <c r="D45">
-        <f t="shared" si="0"/>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="6:30">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>2050</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="1"/>
         <v>2048</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="4:16">
-      <c r="D46">
-        <f t="shared" si="0"/>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="6:30">
+      <c r="R46">
+        <f t="shared" si="1"/>
         <v>2049</v>
       </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="4:16">
-      <c r="D47">
-        <f t="shared" si="0"/>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="6:30">
+      <c r="R47">
+        <f t="shared" si="1"/>
         <v>2050</v>
       </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47">
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
         <v>0</v>
       </c>
     </row>
@@ -9045,7 +8956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:O42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
@@ -10740,7 +10651,7 @@
   <dimension ref="C4:O43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:O43"/>
+      <selection activeCell="C4" sqref="C4:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12427,4 +12338,891 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="C7">
+        <v>2011</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F7" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H7" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="C8">
+        <f>+C7+1</f>
+        <v>2012</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F8" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G8" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H8" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="C9">
+        <f t="shared" ref="C9:C46" si="0">+C8+1</f>
+        <v>2013</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F9" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H9" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F10" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G10" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H10" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F11" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H11" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F12" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H12" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F13" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G13" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H13" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F14" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G14" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H14" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F15" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G15" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H15" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F16" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H16" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F17" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G17" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H17" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F18" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G18" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H18" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F19" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G19" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H19" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F20" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G20" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H20" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E21" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F21" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G21" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H21" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F22" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G22" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H22" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E23" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F23" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G23" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H23" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F24" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G24" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H24" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E25" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F25" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G25" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H25" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F26" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G26" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H26" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E27" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F27" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G27" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H27" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E28" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F28" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G28" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H28" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E29" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F29" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G29" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H29" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E30" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F30" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G30" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H30" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E31" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F31" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G31" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H31" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>2036</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E32" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F32" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G32" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H32" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>2037</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E33" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F33" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G33" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H33" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>2038</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E34" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F34" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G34" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H34" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>2039</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E35" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F35" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G35" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H35" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>2040</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E36" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F36" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G36" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H36" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>2041</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E37" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F37" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G37" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H37" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>2042</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E38" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F38" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G38" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H38" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>2043</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E39" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F39" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G39" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H39" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>2044</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E40" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F40" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G40" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H40" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8">
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>2045</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E41" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F41" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G41" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H41" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>2046</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E42" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F42" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G42" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H42" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8">
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>2047</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E43" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F43" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G43" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H43" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8">
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E44" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F44" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G44" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H44" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8">
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>2049</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E45" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F45" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G45" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H45" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8">
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>2050</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E46" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="F46" s="2">
+        <v>900000</v>
+      </c>
+      <c r="G46" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="H46" s="2">
+        <v>900000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
   <si>
     <t>_</t>
   </si>
@@ -79,21 +79,6 @@
   </si>
   <si>
     <t>existing fleet</t>
-  </si>
-  <si>
-    <t>inv</t>
-  </si>
-  <si>
-    <t>var</t>
-  </si>
-  <si>
-    <t>emission</t>
-  </si>
-  <si>
-    <t>eff</t>
-  </si>
-  <si>
-    <t>maxdemand</t>
   </si>
   <si>
     <t>"HFO_oiltanker"</t>
@@ -569,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:N58"/>
+  <dimension ref="C4:I53"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -586,7 +571,7 @@
     <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:14">
+    <row r="4" spans="3:9">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -600,7 +585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:14">
+    <row r="5" spans="3:9">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -611,7 +596,7 @@
         <v>8228</v>
       </c>
     </row>
-    <row r="6" spans="3:14">
+    <row r="6" spans="3:9">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -622,7 +607,7 @@
         <v>21090</v>
       </c>
     </row>
-    <row r="7" spans="3:14">
+    <row r="7" spans="3:9">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -633,7 +618,7 @@
         <v>4966</v>
       </c>
     </row>
-    <row r="8" spans="3:14">
+    <row r="8" spans="3:9">
       <c r="C8" t="s">
         <v>5</v>
       </c>
@@ -644,22 +629,22 @@
         <v>38390</v>
       </c>
     </row>
-    <row r="9" spans="3:14">
+    <row r="9" spans="3:9">
       <c r="C9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="3:14">
+    <row r="10" spans="3:9">
       <c r="C10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="3:14">
+    <row r="11" spans="3:9">
       <c r="C11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="3:14">
+    <row r="12" spans="3:9">
       <c r="C12" t="s">
         <v>9</v>
       </c>
@@ -667,27 +652,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="3:14">
+    <row r="13" spans="3:9">
       <c r="I13" t="s">
         <v>16</v>
       </c>
-      <c r="J13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" t="s">
-        <v>20</v>
-      </c>
-      <c r="N13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="3:14">
+    </row>
+    <row r="14" spans="3:9">
       <c r="F14" t="str">
         <f>+C4&amp;$H$4&amp;$E$4</f>
         <v>HFO_oiltanker</v>
@@ -699,1477 +669,512 @@
       <c r="I14">
         <v>10609</v>
       </c>
-      <c r="J14">
-        <f ca="1">+RANDBETWEEN(1,9)</f>
-        <v>9</v>
-      </c>
-      <c r="K14">
-        <f ca="1">+RANDBETWEEN(1,9)</f>
-        <v>4</v>
-      </c>
-      <c r="L14">
-        <f ca="1">+RANDBETWEEN(1,9)</f>
-        <v>7</v>
-      </c>
-      <c r="M14">
-        <f t="shared" ref="M14:N14" ca="1" si="0">+RANDBETWEEN(1,9)</f>
-        <v>8</v>
-      </c>
-      <c r="N14">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="3:14">
+    </row>
+    <row r="15" spans="3:9">
       <c r="F15" t="str">
-        <f t="shared" ref="F15:F22" si="1">+C5&amp;$H$4&amp;$E$4</f>
+        <f t="shared" ref="F15:F19" si="0">+C5&amp;$H$4&amp;$E$4</f>
         <v>LNG_oiltanker</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" ref="H15:H58" si="2">+$H$12&amp;F15&amp;$H$12</f>
+        <f t="shared" ref="H15:H53" si="1">+$H$12&amp;F15&amp;$H$12</f>
         <v>"LNG_oiltanker"</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15">
-        <f t="shared" ref="J15:N58" ca="1" si="3">+RANDBETWEEN(1,9)</f>
-        <v>9</v>
-      </c>
-      <c r="K15">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="L15">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="M15">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="N15">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="3:14">
+    </row>
+    <row r="16" spans="3:9">
       <c r="F16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>LSFO_oiltanker</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>"LSFO_oiltanker"</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="K16">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="L16">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="N16">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="6:14">
+    </row>
+    <row r="17" spans="6:9">
       <c r="F17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Methanol_oiltanker</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>"Methanol_oiltanker"</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="K17">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="M17">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="N17">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="6:14">
+    </row>
+    <row r="18" spans="6:9">
       <c r="F18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Biodiesel_oiltanker</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>"Biodiesel_oiltanker"</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="K18">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="M18">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="N18">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="6:14">
+    </row>
+    <row r="19" spans="6:9">
       <c r="F19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Ammonia_oiltanker</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>"Ammonia_oiltanker"</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="K19">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="L19">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="6:14">
+    </row>
+    <row r="20" spans="6:9">
       <c r="F20" t="str">
-        <f t="shared" si="1"/>
-        <v>Electricity_oiltanker</v>
+        <f>+C11&amp;$H$4&amp;$E$4</f>
+        <v>Liquified methane_oiltanker</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="2"/>
-        <v>"Electricity_oiltanker"</v>
+        <f t="shared" si="1"/>
+        <v>"Liquified methane_oiltanker"</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="K20">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="L20">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="M20">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="N20">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="6:14">
+    </row>
+    <row r="21" spans="6:9">
       <c r="F21" t="str">
-        <f t="shared" si="1"/>
-        <v>Liquified methane_oiltanker</v>
+        <f>+C12&amp;$H$4&amp;$E$4</f>
+        <v>Hydrogen_oiltanker</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="2"/>
-        <v>"Liquified methane_oiltanker"</v>
+        <f t="shared" si="1"/>
+        <v>"Hydrogen_oiltanker"</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="J21">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="K21">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="M21">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="N21">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="6:14">
+    </row>
+    <row r="22" spans="6:9">
       <c r="F22" t="str">
-        <f t="shared" si="1"/>
-        <v>Hydrogen_oiltanker</v>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="2"/>
-        <v>"Hydrogen_oiltanker"</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="K22">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="L22">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="M22">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="N22">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="6:14">
-      <c r="F23" t="str">
         <f>+C4&amp;$H$4&amp;$E$5</f>
         <v>HFO_bulkcarrier</v>
       </c>
+      <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v>"HFO_bulkcarrier"</v>
+      </c>
+      <c r="I22">
+        <v>8228</v>
+      </c>
+    </row>
+    <row r="23" spans="6:9">
+      <c r="F23" t="str">
+        <f t="shared" ref="F23:F27" si="2">+C5&amp;$H$4&amp;$E$5</f>
+        <v>LNG_bulkcarrier</v>
+      </c>
       <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v>"LNG_bulkcarrier"</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9">
+      <c r="F24" t="str">
         <f t="shared" si="2"/>
-        <v>"HFO_bulkcarrier"</v>
-      </c>
-      <c r="I23">
-        <v>8228</v>
-      </c>
-      <c r="J23">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="K23">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="M23">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N23">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="6:14">
-      <c r="F24" t="str">
-        <f t="shared" ref="F24:F31" si="4">+C5&amp;$H$4&amp;$E$5</f>
-        <v>LNG_bulkcarrier</v>
+        <v>LSFO_bulkcarrier</v>
       </c>
       <c r="H24" t="str">
+        <f t="shared" si="1"/>
+        <v>"LSFO_bulkcarrier"</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="6:9">
+      <c r="F25" t="str">
         <f t="shared" si="2"/>
-        <v>"LNG_bulkcarrier"</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="K24">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="L24">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="N24">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="6:14">
-      <c r="F25" t="str">
-        <f t="shared" si="4"/>
-        <v>LSFO_bulkcarrier</v>
+        <v>Methanol_bulkcarrier</v>
       </c>
       <c r="H25" t="str">
+        <f t="shared" si="1"/>
+        <v>"Methanol_bulkcarrier"</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="6:9">
+      <c r="F26" t="str">
         <f t="shared" si="2"/>
-        <v>"LSFO_bulkcarrier"</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="K25">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="L25">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="M25">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="N25">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="6:14">
-      <c r="F26" t="str">
-        <f t="shared" si="4"/>
-        <v>Methanol_bulkcarrier</v>
+        <v>Biodiesel_bulkcarrier</v>
       </c>
       <c r="H26" t="str">
+        <f t="shared" si="1"/>
+        <v>"Biodiesel_bulkcarrier"</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="6:9">
+      <c r="F27" t="str">
         <f t="shared" si="2"/>
-        <v>"Methanol_bulkcarrier"</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="K26">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="L26">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="M26">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="N26">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="6:14">
-      <c r="F27" t="str">
-        <f t="shared" si="4"/>
-        <v>Biodiesel_bulkcarrier</v>
+        <v>Ammonia_bulkcarrier</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="2"/>
-        <v>"Biodiesel_bulkcarrier"</v>
+        <f t="shared" si="1"/>
+        <v>"Ammonia_bulkcarrier"</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
-      <c r="J27">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="K27">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L27">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="M27">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="N27">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="6:14">
+    </row>
+    <row r="28" spans="6:9">
       <c r="F28" t="str">
-        <f t="shared" si="4"/>
-        <v>Ammonia_bulkcarrier</v>
-      </c>
-      <c r="H28" t="str">
-        <f t="shared" si="2"/>
-        <v>"Ammonia_bulkcarrier"</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="K28">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="L28">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="M28">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="N28">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="6:14">
-      <c r="F29" t="str">
-        <f t="shared" si="4"/>
-        <v>Electricity_bulkcarrier</v>
-      </c>
-      <c r="H29" t="str">
-        <f t="shared" si="2"/>
-        <v>"Electricity_bulkcarrier"</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="K29">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="M29">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="N29">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="6:14">
-      <c r="F30" t="str">
         <f>+C11&amp;$H$4&amp;$E$5</f>
         <v>Liquified methane_bulkcarrier</v>
       </c>
-      <c r="H30" t="str">
-        <f t="shared" si="2"/>
+      <c r="H28" t="str">
+        <f t="shared" si="1"/>
         <v>"Liquified methane_bulkcarrier"</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="K30">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="L30">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="M30">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="N30">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="6:14">
-      <c r="F31" t="str">
-        <f t="shared" si="4"/>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="6:9">
+      <c r="F29" t="str">
+        <f>+C12&amp;$H$4&amp;$E$5</f>
         <v>Hydrogen_bulkcarrier</v>
       </c>
-      <c r="H31" t="str">
-        <f t="shared" si="2"/>
+      <c r="H29" t="str">
+        <f t="shared" si="1"/>
         <v>"Hydrogen_bulkcarrier"</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="K31">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L31">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="M31">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="N31">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="6:14">
-      <c r="F32" t="str">
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="6:9">
+      <c r="F30" t="str">
         <f>+C4&amp;$H$4&amp;$E$6</f>
         <v>HFO_generalcargo</v>
       </c>
+      <c r="H30" t="str">
+        <f t="shared" si="1"/>
+        <v>"HFO_generalcargo"</v>
+      </c>
+      <c r="I30">
+        <v>21090</v>
+      </c>
+    </row>
+    <row r="31" spans="6:9">
+      <c r="F31" t="str">
+        <f t="shared" ref="F31:F35" si="3">+C5&amp;$H$4&amp;$E$6</f>
+        <v>LNG_generalcargo</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="1"/>
+        <v>"LNG_generalcargo"</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="6:9">
+      <c r="F32" t="str">
+        <f t="shared" si="3"/>
+        <v>LSFO_generalcargo</v>
+      </c>
       <c r="H32" t="str">
-        <f t="shared" si="2"/>
-        <v>"HFO_generalcargo"</v>
+        <f t="shared" si="1"/>
+        <v>"LSFO_generalcargo"</v>
       </c>
       <c r="I32">
-        <v>21090</v>
-      </c>
-      <c r="J32">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="K32">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="L32">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="M32">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="N32">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="6:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9">
       <c r="F33" t="str">
-        <f t="shared" ref="F33:F40" si="5">+C5&amp;$H$4&amp;$E$6</f>
-        <v>LNG_generalcargo</v>
+        <f t="shared" si="3"/>
+        <v>Methanol_generalcargo</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="2"/>
-        <v>"LNG_generalcargo"</v>
+        <f t="shared" si="1"/>
+        <v>"Methanol_generalcargo"</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="J33">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="K33">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="M33">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="N33">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="6:14">
+    </row>
+    <row r="34" spans="6:9">
       <c r="F34" t="str">
-        <f t="shared" si="5"/>
-        <v>LSFO_generalcargo</v>
+        <f t="shared" si="3"/>
+        <v>Biodiesel_generalcargo</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="2"/>
-        <v>"LSFO_generalcargo"</v>
+        <f t="shared" si="1"/>
+        <v>"Biodiesel_generalcargo"</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
-      <c r="J34">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="K34">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="N34">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="6:14">
+    </row>
+    <row r="35" spans="6:9">
       <c r="F35" t="str">
-        <f t="shared" si="5"/>
-        <v>Methanol_generalcargo</v>
+        <f t="shared" si="3"/>
+        <v>Ammonia_generalcargo</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="2"/>
-        <v>"Methanol_generalcargo"</v>
+        <f t="shared" si="1"/>
+        <v>"Ammonia_generalcargo"</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
-      <c r="J35">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="K35">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="M35">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="N35">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="6:14">
+    </row>
+    <row r="36" spans="6:9">
       <c r="F36" t="str">
-        <f t="shared" si="5"/>
-        <v>Biodiesel_generalcargo</v>
-      </c>
-      <c r="H36" t="str">
-        <f t="shared" si="2"/>
-        <v>"Biodiesel_generalcargo"</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="K36">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="L36">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="M36">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="N36">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="6:14">
-      <c r="F37" t="str">
-        <f t="shared" si="5"/>
-        <v>Ammonia_generalcargo</v>
-      </c>
-      <c r="H37" t="str">
-        <f t="shared" si="2"/>
-        <v>"Ammonia_generalcargo"</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="K37">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="N37">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="6:14">
-      <c r="F38" t="str">
-        <f t="shared" si="5"/>
-        <v>Electricity_generalcargo</v>
-      </c>
-      <c r="H38" t="str">
-        <f t="shared" si="2"/>
-        <v>"Electricity_generalcargo"</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="K38">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="L38">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="M38">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N38">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="6:14">
-      <c r="F39" t="str">
         <f>+C11&amp;$H$4&amp;$E$6</f>
         <v>Liquified methane_generalcargo</v>
       </c>
-      <c r="H39" t="str">
-        <f t="shared" si="2"/>
+      <c r="H36" t="str">
+        <f t="shared" si="1"/>
         <v>"Liquified methane_generalcargo"</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="K39">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="L39">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="M39">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="N39">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="6:14">
-      <c r="F40" t="str">
-        <f t="shared" si="5"/>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="6:9">
+      <c r="F37" t="str">
+        <f>+C12&amp;$H$4&amp;$E$6</f>
         <v>Hydrogen_generalcargo</v>
       </c>
-      <c r="H40" t="str">
-        <f t="shared" si="2"/>
+      <c r="H37" t="str">
+        <f t="shared" si="1"/>
         <v>"Hydrogen_generalcargo"</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="K40">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="L40">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="M40">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="N40">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="6:14">
-      <c r="F41" t="str">
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="6:9">
+      <c r="F38" t="str">
         <f>+C4&amp;$H$4&amp;$E$7</f>
         <v>HFO_containership</v>
       </c>
+      <c r="H38" t="str">
+        <f t="shared" si="1"/>
+        <v>"HFO_containership"</v>
+      </c>
+      <c r="I38">
+        <v>4966</v>
+      </c>
+    </row>
+    <row r="39" spans="6:9">
+      <c r="F39" t="str">
+        <f t="shared" ref="F39:F43" si="4">+C5&amp;$H$4&amp;$E$7</f>
+        <v>LNG_containership</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="1"/>
+        <v>"LNG_containership"</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="6:9">
+      <c r="F40" t="str">
+        <f t="shared" si="4"/>
+        <v>LSFO_containership</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="1"/>
+        <v>"LSFO_containership"</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="6:9">
+      <c r="F41" t="str">
+        <f t="shared" si="4"/>
+        <v>Methanol_containership</v>
+      </c>
       <c r="H41" t="str">
-        <f t="shared" si="2"/>
-        <v>"HFO_containership"</v>
+        <f t="shared" si="1"/>
+        <v>"Methanol_containership"</v>
       </c>
       <c r="I41">
-        <v>4966</v>
-      </c>
-      <c r="J41">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="K41">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="L41">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="M41">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="6:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="6:9">
       <c r="F42" t="str">
-        <f t="shared" ref="F42:F49" si="6">+C5&amp;$H$4&amp;$E$7</f>
-        <v>LNG_containership</v>
+        <f t="shared" si="4"/>
+        <v>Biodiesel_containership</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="2"/>
-        <v>"LNG_containership"</v>
+        <f t="shared" si="1"/>
+        <v>"Biodiesel_containership"</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
-      <c r="J42">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="K42">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="L42">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="M42">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="N42">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="6:14">
+    </row>
+    <row r="43" spans="6:9">
       <c r="F43" t="str">
-        <f t="shared" si="6"/>
-        <v>LSFO_containership</v>
+        <f t="shared" si="4"/>
+        <v>Ammonia_containership</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="2"/>
-        <v>"LSFO_containership"</v>
+        <f t="shared" si="1"/>
+        <v>"Ammonia_containership"</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
-      <c r="J43">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="K43">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="L43">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="M43">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="N43">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="6:14">
+    </row>
+    <row r="44" spans="6:9">
       <c r="F44" t="str">
-        <f t="shared" si="6"/>
-        <v>Methanol_containership</v>
+        <f>+C11&amp;$H$4&amp;$E$7</f>
+        <v>Liquified methane_containership</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="2"/>
-        <v>"Methanol_containership"</v>
+        <f t="shared" si="1"/>
+        <v>"Liquified methane_containership"</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
-      <c r="J44">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="K44">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L44">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M44">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="N44">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="6:14">
+    </row>
+    <row r="45" spans="6:9">
       <c r="F45" t="str">
-        <f t="shared" si="6"/>
-        <v>Biodiesel_containership</v>
+        <f>+C12&amp;$H$4&amp;$E$7</f>
+        <v>Hydrogen_containership</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="2"/>
-        <v>"Biodiesel_containership"</v>
+        <f t="shared" si="1"/>
+        <v>"Hydrogen_containership"</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
-      <c r="J45">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="K45">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="L45">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="M45">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="N45">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="6:14">
+    </row>
+    <row r="46" spans="6:9">
       <c r="F46" t="str">
-        <f t="shared" si="6"/>
-        <v>Ammonia_containership</v>
-      </c>
-      <c r="H46" t="str">
-        <f t="shared" si="2"/>
-        <v>"Ammonia_containership"</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="K46">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="L46">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="M46">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="N46">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="6:14">
-      <c r="F47" t="str">
-        <f t="shared" si="6"/>
-        <v>Electricity_containership</v>
-      </c>
-      <c r="H47" t="str">
-        <f t="shared" si="2"/>
-        <v>"Electricity_containership"</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="K47">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="L47">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="M47">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="N47">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="6:14">
-      <c r="F48" t="str">
-        <f t="shared" si="6"/>
-        <v>Liquified methane_containership</v>
-      </c>
-      <c r="H48" t="str">
-        <f t="shared" si="2"/>
-        <v>"Liquified methane_containership"</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="K48">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L48">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="M48">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="N48">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="6:14">
-      <c r="F49" t="str">
-        <f t="shared" si="6"/>
-        <v>Hydrogen_containership</v>
-      </c>
-      <c r="H49" t="str">
-        <f t="shared" si="2"/>
-        <v>"Hydrogen_containership"</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="K49">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L49">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="M49">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="N49">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="6:14">
-      <c r="F50" t="str">
         <f>+C4&amp;$H$4&amp;$E$8</f>
         <v>HFO_other</v>
       </c>
+      <c r="H46" t="str">
+        <f t="shared" si="1"/>
+        <v>"HFO_other"</v>
+      </c>
+      <c r="I46">
+        <v>38390</v>
+      </c>
+    </row>
+    <row r="47" spans="6:9">
+      <c r="F47" t="str">
+        <f t="shared" ref="F47:F51" si="5">+C5&amp;$H$4&amp;$E$8</f>
+        <v>LNG_other</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="1"/>
+        <v>"LNG_other"</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="6:9">
+      <c r="F48" t="str">
+        <f t="shared" si="5"/>
+        <v>LSFO_other</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="1"/>
+        <v>"LSFO_other"</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="6:9">
+      <c r="F49" t="str">
+        <f t="shared" si="5"/>
+        <v>Methanol_other</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="1"/>
+        <v>"Methanol_other"</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="6:9">
+      <c r="F50" t="str">
+        <f t="shared" si="5"/>
+        <v>Biodiesel_other</v>
+      </c>
       <c r="H50" t="str">
-        <f t="shared" si="2"/>
-        <v>"HFO_other"</v>
+        <f t="shared" si="1"/>
+        <v>"Biodiesel_other"</v>
       </c>
       <c r="I50">
-        <v>38390</v>
-      </c>
-      <c r="J50">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="K50">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L50">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="M50">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="N50">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="6:14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="6:9">
       <c r="F51" t="str">
-        <f t="shared" ref="F51:F58" si="7">+C5&amp;$H$4&amp;$E$8</f>
-        <v>LNG_other</v>
+        <f t="shared" si="5"/>
+        <v>Ammonia_other</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="2"/>
-        <v>"LNG_other"</v>
+        <f t="shared" si="1"/>
+        <v>"Ammonia_other"</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
-      <c r="J51">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="K51">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L51">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M51">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="N51">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="6:14">
+    </row>
+    <row r="52" spans="6:9">
       <c r="F52" t="str">
-        <f t="shared" si="7"/>
-        <v>LSFO_other</v>
+        <f>+C11&amp;$H$4&amp;$E$8</f>
+        <v>Liquified methane_other</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="2"/>
-        <v>"LSFO_other"</v>
+        <f t="shared" si="1"/>
+        <v>"Liquified methane_other"</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
-      <c r="J52">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="K52">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="L52">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="M52">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="N52">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="6:14">
+    </row>
+    <row r="53" spans="6:9">
       <c r="F53" t="str">
-        <f t="shared" si="7"/>
-        <v>Methanol_other</v>
+        <f>+C12&amp;$H$4&amp;$E$8</f>
+        <v>Hydrogen_other</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="2"/>
-        <v>"Methanol_other"</v>
+        <f t="shared" si="1"/>
+        <v>"Hydrogen_other"</v>
       </c>
       <c r="I53">
         <v>0</v>
-      </c>
-      <c r="J53">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="K53">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="L53">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="M53">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="N53">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="6:14">
-      <c r="F54" t="str">
-        <f t="shared" si="7"/>
-        <v>Biodiesel_other</v>
-      </c>
-      <c r="H54" t="str">
-        <f t="shared" si="2"/>
-        <v>"Biodiesel_other"</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="K54">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="L54">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="M54">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="N54">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="6:14">
-      <c r="F55" t="str">
-        <f t="shared" si="7"/>
-        <v>Ammonia_other</v>
-      </c>
-      <c r="H55" t="str">
-        <f t="shared" si="2"/>
-        <v>"Ammonia_other"</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="K55">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="L55">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="M55">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="N55">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="6:14">
-      <c r="F56" t="str">
-        <f t="shared" si="7"/>
-        <v>Electricity_other</v>
-      </c>
-      <c r="H56" t="str">
-        <f t="shared" si="2"/>
-        <v>"Electricity_other"</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="K56">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L56">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="M56">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="N56">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="6:14">
-      <c r="F57" t="str">
-        <f t="shared" si="7"/>
-        <v>Liquified methane_other</v>
-      </c>
-      <c r="H57" t="str">
-        <f t="shared" si="2"/>
-        <v>"Liquified methane_other"</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="K57">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="L57">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="M57">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="N57">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="6:14">
-      <c r="F58" t="str">
-        <f t="shared" si="7"/>
-        <v>Hydrogen_other</v>
-      </c>
-      <c r="H58" t="str">
-        <f t="shared" si="2"/>
-        <v>"Hydrogen_other"</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K58">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L58">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M58">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="N58">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6089,7 +5094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:AU11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -6145,139 +5150,139 @@
   <sheetData>
     <row r="6" spans="2:47">
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="I6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
+      <c r="J6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
+      <c r="K6" t="s">
         <v>25</v>
       </c>
-      <c r="G6" t="s">
+      <c r="L6" t="s">
         <v>26</v>
       </c>
-      <c r="H6" t="s">
+      <c r="M6" t="s">
         <v>27</v>
       </c>
-      <c r="I6" t="s">
+      <c r="N6" t="s">
         <v>28</v>
       </c>
-      <c r="J6" t="s">
+      <c r="O6" t="s">
         <v>29</v>
       </c>
-      <c r="K6" t="s">
+      <c r="P6" t="s">
         <v>30</v>
       </c>
-      <c r="L6" t="s">
+      <c r="Q6" t="s">
         <v>31</v>
       </c>
-      <c r="M6" t="s">
+      <c r="R6" t="s">
         <v>32</v>
       </c>
-      <c r="N6" t="s">
+      <c r="S6" t="s">
         <v>33</v>
       </c>
-      <c r="O6" t="s">
+      <c r="T6" t="s">
         <v>34</v>
       </c>
-      <c r="P6" t="s">
+      <c r="U6" t="s">
         <v>35</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="V6" t="s">
         <v>36</v>
       </c>
-      <c r="R6" t="s">
+      <c r="W6" t="s">
         <v>37</v>
       </c>
-      <c r="S6" t="s">
+      <c r="X6" t="s">
         <v>38</v>
       </c>
-      <c r="T6" t="s">
+      <c r="Y6" t="s">
         <v>39</v>
       </c>
-      <c r="U6" t="s">
+      <c r="Z6" t="s">
         <v>40</v>
       </c>
-      <c r="V6" t="s">
+      <c r="AA6" t="s">
         <v>41</v>
       </c>
-      <c r="W6" t="s">
+      <c r="AB6" t="s">
         <v>42</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AC6" t="s">
         <v>43</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="AD6" t="s">
         <v>44</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AE6" t="s">
         <v>45</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AF6" t="s">
         <v>46</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AG6" t="s">
         <v>47</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AH6" t="s">
         <v>48</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AI6" t="s">
         <v>49</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AJ6" t="s">
         <v>50</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AK6" t="s">
         <v>51</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AL6" t="s">
         <v>52</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AM6" t="s">
         <v>53</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AN6" t="s">
         <v>54</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AO6" t="s">
         <v>55</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AP6" t="s">
         <v>56</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AQ6" t="s">
         <v>57</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AR6" t="s">
         <v>58</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AS6" t="s">
         <v>59</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AT6" t="s">
         <v>60</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AU6" t="s">
         <v>61</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:47">
@@ -6989,8 +5994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AD47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="E5" workbookViewId="0">
+      <selection activeCell="AD47" sqref="S8:AD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7005,20 +6010,20 @@
   <sheetData>
     <row r="2" spans="1:30">
       <c r="F2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:30">
       <c r="H3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
@@ -7042,7 +6047,7 @@
         <v>7</v>
       </c>
       <c r="N5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="O5" t="s">
         <v>9</v>
@@ -7050,7 +6055,7 @@
     </row>
     <row r="6" spans="1:30">
       <c r="B6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F6">
         <v>2011</v>
@@ -7086,40 +6091,40 @@
         <v>2011</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -7138,40 +6143,40 @@
         <v>2012</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -7190,40 +6195,40 @@
         <v>2013</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -7242,40 +6247,40 @@
         <v>2014</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -7294,40 +6299,40 @@
         <v>2015</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -7346,45 +6351,45 @@
         <v>2016</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -7395,40 +6400,40 @@
         <v>2017</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:30">
@@ -7447,40 +6452,40 @@
         <v>2018</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:30">
@@ -7493,40 +6498,40 @@
         <v>2019</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="6:30">
@@ -7539,40 +6544,40 @@
         <v>2020</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="6:30">
@@ -7585,40 +6590,40 @@
         <v>2021</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="6:30">
@@ -7631,40 +6636,40 @@
         <v>2022</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="6:30">
@@ -7677,40 +6682,40 @@
         <v>2023</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="6:30">
@@ -7723,40 +6728,40 @@
         <v>2024</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="6:30">
@@ -7769,40 +6774,40 @@
         <v>2025</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="6:30">
@@ -7815,40 +6820,40 @@
         <v>2026</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="6:30">
@@ -7861,40 +6866,40 @@
         <v>2027</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="6:30">
@@ -7907,40 +6912,40 @@
         <v>2028</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="6:30">
@@ -7953,40 +6958,40 @@
         <v>2029</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="6:30">
@@ -7999,40 +7004,40 @@
         <v>2030</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="6:30">
@@ -8045,40 +7050,40 @@
         <v>2031</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="6:30">
@@ -8091,40 +7096,40 @@
         <v>2032</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="6:30">
@@ -8137,40 +7142,40 @@
         <v>2033</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="6:30">
@@ -8183,40 +7188,40 @@
         <v>2034</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="6:30">
@@ -8229,40 +7234,40 @@
         <v>2035</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="6:30">
@@ -8275,40 +7280,40 @@
         <v>2036</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="6:30">
@@ -8321,40 +7326,40 @@
         <v>2037</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="6:30">
@@ -8367,40 +7372,40 @@
         <v>2038</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="6:30">
@@ -8413,40 +7418,40 @@
         <v>2039</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="6:30">
@@ -8459,40 +7464,40 @@
         <v>2040</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="6:30">
@@ -8505,40 +7510,40 @@
         <v>2041</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="6:30">
@@ -8551,40 +7556,40 @@
         <v>2042</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="6:30">
@@ -8597,40 +7602,40 @@
         <v>2043</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="6:30">
@@ -8643,40 +7648,40 @@
         <v>2044</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="6:30">
@@ -8689,40 +7694,40 @@
         <v>2045</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="6:30">
@@ -8735,40 +7740,40 @@
         <v>2046</v>
       </c>
       <c r="S43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="6:30">
@@ -8781,40 +7786,40 @@
         <v>2047</v>
       </c>
       <c r="S44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="6:30">
@@ -8827,40 +7832,40 @@
         <v>2048</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="6:30">
@@ -8869,40 +7874,40 @@
         <v>2049</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="6:30">
@@ -8911,40 +7916,40 @@
         <v>2050</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -12358,12 +11363,12 @@
   <sheetData>
     <row r="2" spans="2:8">
       <c r="B2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="2:8">

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
   <si>
     <t>_</t>
   </si>
@@ -239,6 +239,27 @@
   <si>
     <t>p86 of Maritime Forecast to 2050</t>
   </si>
+  <si>
+    <t>Total fleet</t>
+  </si>
+  <si>
+    <t>Oil tankers</t>
+  </si>
+  <si>
+    <t>Bulk carriers</t>
+  </si>
+  <si>
+    <t>General cargo</t>
+  </si>
+  <si>
+    <t>Container ships</t>
+  </si>
+  <si>
+    <t>Other types of ships</t>
+  </si>
+  <si>
+    <t># of ships</t>
+  </si>
 </sst>
 </file>
 
@@ -270,10 +291,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1184,12 +1206,252 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C1:L8"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:12">
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="3:12">
+      <c r="D2">
+        <v>2011</v>
+      </c>
+      <c r="E2">
+        <f>+D2+1</f>
+        <v>2012</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:L2" si="0">+E2+1</f>
+        <v>2013</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12">
+      <c r="C3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="3">
+        <v>83283</v>
+      </c>
+      <c r="E3" s="3">
+        <v>84709</v>
+      </c>
+      <c r="F3" s="3">
+        <v>86484</v>
+      </c>
+      <c r="G3" s="3">
+        <v>87954</v>
+      </c>
+      <c r="H3" s="3">
+        <v>90470</v>
+      </c>
+      <c r="I3" s="3">
+        <v>92074</v>
+      </c>
+      <c r="J3" s="3">
+        <v>93262</v>
+      </c>
+      <c r="K3" s="3">
+        <v>94169</v>
+      </c>
+      <c r="L3" s="3">
+        <v>96295</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12">
+      <c r="C4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10609</v>
+      </c>
+      <c r="E4" s="3">
+        <v>8838</v>
+      </c>
+      <c r="F4" s="3">
+        <v>9033</v>
+      </c>
+      <c r="G4" s="3">
+        <v>9241</v>
+      </c>
+      <c r="H4" s="3">
+        <v>9695</v>
+      </c>
+      <c r="I4" s="3">
+        <v>9935</v>
+      </c>
+      <c r="J4" s="3">
+        <v>10216</v>
+      </c>
+      <c r="K4" s="3">
+        <v>10420</v>
+      </c>
+      <c r="L4" s="3">
+        <v>10766</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12">
+      <c r="C5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="3">
+        <v>8228</v>
+      </c>
+      <c r="E5" s="3">
+        <v>9001</v>
+      </c>
+      <c r="F5" s="3">
+        <v>9568</v>
+      </c>
+      <c r="G5" s="3">
+        <v>10162</v>
+      </c>
+      <c r="H5" s="3">
+        <v>10509</v>
+      </c>
+      <c r="I5" s="3">
+        <v>10747</v>
+      </c>
+      <c r="J5" s="3">
+        <v>10892</v>
+      </c>
+      <c r="K5" s="3">
+        <v>11125</v>
+      </c>
+      <c r="L5" s="3">
+        <v>11373</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12">
+      <c r="C6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="3">
+        <v>21090</v>
+      </c>
+      <c r="E6" s="3">
+        <v>20309</v>
+      </c>
+      <c r="F6" s="3">
+        <v>20282</v>
+      </c>
+      <c r="G6" s="3">
+        <v>19664</v>
+      </c>
+      <c r="H6" s="3">
+        <v>19566</v>
+      </c>
+      <c r="I6" s="3">
+        <v>19698</v>
+      </c>
+      <c r="J6" s="3">
+        <v>19716</v>
+      </c>
+      <c r="K6" s="3">
+        <v>19613</v>
+      </c>
+      <c r="L6" s="3">
+        <v>18993</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12">
+      <c r="C7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4966</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5096</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5107</v>
+      </c>
+      <c r="G7" s="3">
+        <v>5101</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5111</v>
+      </c>
+      <c r="I7" s="3">
+        <v>5227</v>
+      </c>
+      <c r="J7" s="3">
+        <v>5158</v>
+      </c>
+      <c r="K7" s="3">
+        <v>5164</v>
+      </c>
+      <c r="L7" s="3">
+        <v>5269</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12">
+      <c r="C8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="3">
+        <v>38390</v>
+      </c>
+      <c r="E8" s="3">
+        <v>41465</v>
+      </c>
+      <c r="F8" s="3">
+        <v>42494</v>
+      </c>
+      <c r="G8" s="3">
+        <v>43786</v>
+      </c>
+      <c r="H8" s="3">
+        <v>45589</v>
+      </c>
+      <c r="I8" s="3">
+        <v>46467</v>
+      </c>
+      <c r="J8" s="3">
+        <v>47280</v>
+      </c>
+      <c r="K8" s="3">
+        <v>47847</v>
+      </c>
+      <c r="L8" s="3">
+        <v>49894</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5994,7 +6256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AD47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E5" workbookViewId="0">
+    <sheetView topLeftCell="E5" workbookViewId="0">
       <selection activeCell="AD47" sqref="S8:AD47"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="ship_inv" sheetId="9" r:id="rId8"/>
     <sheet name="Demand forecasts" sheetId="11" r:id="rId9"/>
     <sheet name="Preexisting fleet" sheetId="12" r:id="rId10"/>
+    <sheet name="Sheet6" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="80">
   <si>
     <t>_</t>
   </si>
@@ -259,6 +260,15 @@
   </si>
   <si>
     <t># of ships</t>
+  </si>
+  <si>
+    <t>MFO</t>
+  </si>
+  <si>
+    <t>ammonia</t>
+  </si>
+  <si>
+    <t>methanol</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1449,6 +1459,671 @@
       </c>
       <c r="L8" s="3">
         <v>49894</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:AO16"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U28" sqref="U27:U28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="1:41">
+      <c r="B5">
+        <v>2011</v>
+      </c>
+      <c r="C5">
+        <f>+B5+1</f>
+        <v>2012</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:AO5" si="0">+C5+1</f>
+        <v>2013</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="0"/>
+        <v>2036</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="0"/>
+        <v>2037</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="0"/>
+        <v>2038</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="0"/>
+        <v>2039</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="0"/>
+        <v>2040</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="0"/>
+        <v>2041</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="0"/>
+        <v>2042</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="0"/>
+        <v>2043</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="0"/>
+        <v>2044</v>
+      </c>
+      <c r="AJ5">
+        <f>+AI5+1</f>
+        <v>2045</v>
+      </c>
+      <c r="AK5">
+        <f t="shared" si="0"/>
+        <v>2046</v>
+      </c>
+      <c r="AL5">
+        <f t="shared" si="0"/>
+        <v>2047</v>
+      </c>
+      <c r="AM5">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" si="0"/>
+        <v>2049</v>
+      </c>
+      <c r="AO5">
+        <f t="shared" si="0"/>
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+      <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2001,8 +2676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B13:AP61"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:E61"/>
+    <sheetView topLeftCell="O10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:AP13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11611,8 +12286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11655,19 +12330,19 @@
         <v>2011</v>
       </c>
       <c r="D7" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E7" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F7" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G7" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H7" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="8" spans="2:8">
@@ -11676,19 +12351,19 @@
         <v>2012</v>
       </c>
       <c r="D8" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E8" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F8" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G8" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H8" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="9" spans="2:8">
@@ -11697,19 +12372,19 @@
         <v>2013</v>
       </c>
       <c r="D9" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E9" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F9" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G9" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H9" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="10" spans="2:8">
@@ -11718,19 +12393,19 @@
         <v>2014</v>
       </c>
       <c r="D10" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E10" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F10" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G10" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H10" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="11" spans="2:8">
@@ -11739,19 +12414,19 @@
         <v>2015</v>
       </c>
       <c r="D11" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E11" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F11" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G11" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H11" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="12" spans="2:8">
@@ -11760,19 +12435,19 @@
         <v>2016</v>
       </c>
       <c r="D12" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E12" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F12" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G12" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H12" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="13" spans="2:8">
@@ -11781,19 +12456,19 @@
         <v>2017</v>
       </c>
       <c r="D13" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E13" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F13" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G13" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H13" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="14" spans="2:8">
@@ -11802,19 +12477,19 @@
         <v>2018</v>
       </c>
       <c r="D14" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E14" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F14" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G14" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H14" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="15" spans="2:8">
@@ -11823,19 +12498,19 @@
         <v>2019</v>
       </c>
       <c r="D15" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E15" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F15" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G15" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H15" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="16" spans="2:8">
@@ -11844,19 +12519,19 @@
         <v>2020</v>
       </c>
       <c r="D16" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E16" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F16" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G16" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H16" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="17" spans="3:8">
@@ -11865,19 +12540,19 @@
         <v>2021</v>
       </c>
       <c r="D17" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E17" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F17" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G17" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H17" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="18" spans="3:8">
@@ -11886,19 +12561,19 @@
         <v>2022</v>
       </c>
       <c r="D18" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E18" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F18" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G18" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H18" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="19" spans="3:8">
@@ -11907,19 +12582,19 @@
         <v>2023</v>
       </c>
       <c r="D19" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E19" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F19" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G19" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H19" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="20" spans="3:8">
@@ -11928,19 +12603,19 @@
         <v>2024</v>
       </c>
       <c r="D20" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E20" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F20" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G20" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H20" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="21" spans="3:8">
@@ -11949,19 +12624,19 @@
         <v>2025</v>
       </c>
       <c r="D21" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E21" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F21" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G21" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H21" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="22" spans="3:8">
@@ -11970,19 +12645,19 @@
         <v>2026</v>
       </c>
       <c r="D22" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E22" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F22" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G22" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H22" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="23" spans="3:8">
@@ -11991,19 +12666,19 @@
         <v>2027</v>
       </c>
       <c r="D23" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E23" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F23" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G23" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H23" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="24" spans="3:8">
@@ -12012,19 +12687,19 @@
         <v>2028</v>
       </c>
       <c r="D24" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E24" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F24" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G24" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H24" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="25" spans="3:8">
@@ -12033,19 +12708,19 @@
         <v>2029</v>
       </c>
       <c r="D25" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E25" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F25" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G25" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H25" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="26" spans="3:8">
@@ -12054,19 +12729,19 @@
         <v>2030</v>
       </c>
       <c r="D26" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E26" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F26" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G26" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H26" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="27" spans="3:8">
@@ -12075,19 +12750,19 @@
         <v>2031</v>
       </c>
       <c r="D27" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E27" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F27" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G27" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H27" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="28" spans="3:8">
@@ -12096,19 +12771,19 @@
         <v>2032</v>
       </c>
       <c r="D28" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E28" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F28" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G28" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H28" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="29" spans="3:8">
@@ -12117,19 +12792,19 @@
         <v>2033</v>
       </c>
       <c r="D29" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E29" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F29" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G29" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H29" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="30" spans="3:8">
@@ -12138,19 +12813,19 @@
         <v>2034</v>
       </c>
       <c r="D30" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E30" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F30" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G30" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H30" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="31" spans="3:8">
@@ -12159,19 +12834,19 @@
         <v>2035</v>
       </c>
       <c r="D31" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E31" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F31" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G31" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H31" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="32" spans="3:8">
@@ -12180,19 +12855,19 @@
         <v>2036</v>
       </c>
       <c r="D32" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E32" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F32" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G32" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H32" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="33" spans="3:8">
@@ -12201,19 +12876,19 @@
         <v>2037</v>
       </c>
       <c r="D33" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E33" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F33" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G33" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H33" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="34" spans="3:8">
@@ -12222,19 +12897,19 @@
         <v>2038</v>
       </c>
       <c r="D34" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E34" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F34" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G34" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H34" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="35" spans="3:8">
@@ -12243,19 +12918,19 @@
         <v>2039</v>
       </c>
       <c r="D35" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E35" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F35" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G35" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H35" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="36" spans="3:8">
@@ -12264,19 +12939,19 @@
         <v>2040</v>
       </c>
       <c r="D36" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E36" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F36" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G36" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H36" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="37" spans="3:8">
@@ -12285,19 +12960,19 @@
         <v>2041</v>
       </c>
       <c r="D37" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E37" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F37" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G37" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H37" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="38" spans="3:8">
@@ -12306,19 +12981,19 @@
         <v>2042</v>
       </c>
       <c r="D38" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E38" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F38" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G38" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H38" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="39" spans="3:8">
@@ -12327,19 +13002,19 @@
         <v>2043</v>
       </c>
       <c r="D39" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E39" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F39" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G39" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H39" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="40" spans="3:8">
@@ -12348,19 +13023,19 @@
         <v>2044</v>
       </c>
       <c r="D40" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E40" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F40" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G40" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H40" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="41" spans="3:8">
@@ -12369,19 +13044,19 @@
         <v>2045</v>
       </c>
       <c r="D41" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E41" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F41" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G41" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H41" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="42" spans="3:8">
@@ -12390,19 +13065,19 @@
         <v>2046</v>
       </c>
       <c r="D42" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E42" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F42" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G42" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H42" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="43" spans="3:8">
@@ -12411,19 +13086,19 @@
         <v>2047</v>
       </c>
       <c r="D43" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E43" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F43" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G43" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H43" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="44" spans="3:8">
@@ -12432,19 +13107,19 @@
         <v>2048</v>
       </c>
       <c r="D44" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E44" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F44" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G44" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H44" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="45" spans="3:8">
@@ -12453,19 +13128,19 @@
         <v>2049</v>
       </c>
       <c r="D45" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E45" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F45" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G45" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H45" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="46" spans="3:8">
@@ -12474,19 +13149,19 @@
         <v>2050</v>
       </c>
       <c r="D46" s="2">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="E46" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="F46" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
       <c r="G46" s="2">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="H46" s="2">
-        <v>900000</v>
+        <v>500000</v>
       </c>
     </row>
   </sheetData>
